--- a/企画や仕様(統合用)/クモ仕様書(β用1121統合).xlsx
+++ b/企画や仕様(統合用)/クモ仕様書(β用1121統合).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -25,8 +25,6 @@
     <sheet name="操作説明" sheetId="14" r:id="rId16"/>
     <sheet name="AI" sheetId="21" r:id="rId17"/>
     <sheet name="リザルト" sheetId="22" r:id="rId18"/>
-    <sheet name="グラフィック" sheetId="25" r:id="rId19"/>
-    <sheet name="パーティクル" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3725,310 +3723,6 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>基本行動は一番左と同じ
-着地後の停止時間を0.5秒に
-停止後の移動は無しに
-ステージすべての木を選択範囲内にし、その中で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤い木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">以外で最も近くの本数差が2本以下の木を目的地として選択
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その木までたどり着く最短距離</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を決める(この時跳ぶ先の地点は自分のいる同じ高さで)
-劣勢から10～15秒の間で木に着地してる時、その地点の範囲内に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青い糸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>があった場合、その中で最も長い糸を選択しその糸にジャンプする(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>糸を奪う</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)
-その時糸を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>奪う成功率は80%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>にする</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>テイシジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ホンイカ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>モクテキチ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>レッセイ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="159" eb="162">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>ウバ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="206" eb="207">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>ウバ</t>
-    </rPh>
-    <rPh sb="210" eb="213">
-      <t>セイコウリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4543,337 +4237,6 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>キジュンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>近くの木にジャンプ
-着地後1秒間その場で停止
-停止後、十字いずれか一方向に1秒間ランダム移動
-その時、移動速度も基準値1~1.5のランダムで変わる(要調整)
-この時の幅で速度が1.1までがギリギリ網を発生させる幅の条件の1つ
-移動後1秒間停止
-2つ前まで跳んだ木以外で、近くの木を2つ選択しその2つのうちどちらかをランダムで選択
-木を選択した時、その木がカメラの真ん中にまでカメラを旋回さえ、そのカメラに映ってる木の面で一番近い地点から半径10cm範囲内をとり、その範囲内(空中と地面は対象外)で着地ポイントをランダムで選択し陣地ジャンプする
-以後繰り返し
-もし移動した先にジャンプできる木がなかった場合、その範囲内にある一番</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤い糸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を選択しその糸のジャンプ範囲内にある着地地点をランダムで決めて跳ぶ
-糸もなかったら再び十字いずれか一方向に2秒間ランダム移動
-以後ジャンプができるまで繰り返し
-陣地ジャンプを5～６回したらその地点の範囲内最も近い青い糸を選択し、その地点に向かって陣地ジャンプする(奪う)
-この時の成功確率を50%にする</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>キジュンチ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>アミ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>センカイ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="206" eb="207">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="224" eb="227">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="243" eb="246">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="272" eb="274">
-      <t>イゴ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="306" eb="309">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="312" eb="314">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="316" eb="317">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="318" eb="320">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="323" eb="324">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="329" eb="332">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="335" eb="337">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="345" eb="346">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="348" eb="349">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="351" eb="352">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="398" eb="400">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="408" eb="409">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="414" eb="416">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="417" eb="420">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="420" eb="421">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="422" eb="423">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="424" eb="425">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="426" eb="427">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="428" eb="430">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="434" eb="436">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="437" eb="438">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="441" eb="443">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="450" eb="451">
-      <t>ウバ</t>
-    </rPh>
-    <rPh sb="456" eb="457">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="458" eb="460">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="460" eb="462">
-      <t>カクリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">基本行動は左と同じパターン
-着地後の停止時間は2秒となる
-その時、移動速度も基準値0.8~1.2のランダムで変わる(要調整)
-この状況は網を貼りやすくなる
-着地して移動後、その木についている糸の本数差が1本で、クモAIのいる地点から半径10cm以内に同じその木についている枝があった場合、その枝を最優先で跳ぶ
-↑の行動が成功した場合、次のジャンプ先は必ず他の木限定とする
-</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>アミ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ポン</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ハンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5452,24 +4815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回避アクションの成功率を85%とする
-ほぼほぼ成功して飛んでいく
-木に向かってジャンプ中での回避アクションは途中で糸の上に乗って奪うことはない</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>セイコウリツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6258,6 +5603,895 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基本行動は左と同じパターン
+2秒停止後、十字のいずれか一方向に1秒間ランダム移動
+その時、移動速度も基準値1~1.5のランダムで変わる(要調整)
+この時の幅で速度が1.1までがギリギリ網を発生させる幅の条件の1つ
+移動後1秒間停止
+この状況は網を貼りやすくなる
+着地して移動後、その木についている糸の本数差が1本で、クモAIのいる地点から半径10cm以内に同じその木についている枝があった場合、その枝を最優先で跳ぶ
+↑の行動が成功した場合、次のジャンプ先は必ず他の木限定とする
+</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>アミ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>近くの木にジャンプ
+着地後2秒間その場で停止
+2つ前まで跳んだ木以外で、近くの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いずれかを2つ選択し1つが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だった場合は白い木を選択
+2つとも同じ色だった場合、その2つのうちどちらかをランダムで選択
+木を選択した時、その木がカメラの真ん中にまでカメラを旋回さえ、そのカメラに映ってる木の面で一番近い地点から半径10cm範囲内をとり、その範囲内(空中と地面は対象外)で着地ポイントをランダムで選択し陣地ジャンプする
+以後繰り返し
+もし移動した先にジャンプできる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>または</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がなかった場合、ジャンプ範囲内にある一番近い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択しその糸に跳べるジャンプ範囲内で一番遠い着地地点に跳ぶ
+糸もなかったら再び十字いずれか一方向に2秒間ランダム移動
+以後ジャンプができるまで繰り返し
+陣地ジャンプを5～６回したらその地点の範囲内最も近い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択し、その地点に向かって陣地ジャンプする(奪う)
+この時の成功確率を50%にする</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="167" eb="170">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="186" eb="189">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="259" eb="262">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="287" eb="290">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="303" eb="304">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="350" eb="352">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="360" eb="361">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="366" eb="368">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="369" eb="372">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="372" eb="373">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="374" eb="375">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="378" eb="379">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="380" eb="382">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="386" eb="388">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="393" eb="395">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="408" eb="409">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="410" eb="412">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="412" eb="414">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>基本行動は一番左と同じ
+着地後の停止時間を0.5秒に
+停止後の移動は無しに
+ステージすべての木を選択範囲内にし、その中で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以外で最も近くの本数差が2本以下の木を目的地として選択
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その木までたどり着く最短距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を決める(この時跳ぶ先の地点は自分のいる同じ高さで)
+劣勢から10～15秒の間で木に着地してる時、その地点の範囲内に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があった場合、その中で最も長い糸を選択しその糸にジャンプする(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>糸を奪う</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時になった瞬間、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劣勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間内で回避アクションの最初の1回目のみ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>奪う成功率が100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になる
+2回目以降は、糸を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>奪う成功率は70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にする</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>テイシジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ホンイカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="203" eb="206">
+      <t>レッセイジ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="241" eb="244">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="264" eb="267">
+      <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避アクションの成功率を70%とする
+ほぼほぼ成功して飛んでいく
+木に向かってジャンプ中での回避アクションは途中で糸の上に乗って奪うことはない</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -21623,7 +21857,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -21924,12 +22158,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -21963,53 +22197,53 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -22041,7 +22275,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B1" s="47"/>
     </row>
@@ -22600,8 +22834,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -22631,10 +22865,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -22675,13 +22909,13 @@
         <v>141</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="H12" s="24"/>
     </row>
@@ -22690,13 +22924,13 @@
         <v>160</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22707,7 +22941,7 @@
     </row>
     <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -22726,16 +22960,16 @@
     </row>
     <row r="17" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>181</v>
-      </c>
       <c r="C17" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -22743,13 +22977,13 @@
         <v>161</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -22757,13 +22991,13 @@
         <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -22809,34 +23043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22851,6 +23058,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22864,7 +23074,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B1" s="35"/>
     </row>
@@ -22891,7 +23101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -22899,7 +23109,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B1" s="36"/>
     </row>
@@ -22910,57 +23120,57 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -23000,47 +23210,47 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -23079,43 +23289,43 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -23142,7 +23352,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/企画や仕様(統合用)/クモ仕様書(β用1121統合).xlsx
+++ b/企画や仕様(統合用)/クモ仕様書(β用1121統合).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="237">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -2835,32 +2835,6 @@
   </si>
   <si>
     <t>プレイヤーへ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了時、ゲーム画面を止めて、1秒間かけて薄暗くする</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ウスグラ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6492,6 +6466,262 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面挙動</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームプレイ画面でプレイタイムが0になったときにリザルト画面にシーン遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リザルト画面遷移時ゲームプレイ画面のステージ状態はそのまま遷移しスタート画面と同じ状態で表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・遷移後画面下部に上記の画像のように陣地バーを表示する</t>
+    <rPh sb="1" eb="3">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・表示後3秒後に正しい陣地ゲージに表示</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正しい陣地ゲージを表示後プレイヤーが勝っていた場合陣地ゲージの上にwinの文字を表示</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・winと陣地ゲージの真ん中にプレイヤーキャラクターを表示し30秒で一回転するスピードでキャラクターを横方向に回す</t>
+    <rPh sb="5" eb="7">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ヨコホウコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・その後画面中央にセレクト　リトライ　ゲーム終了を表示</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エネミーが買っていた場合陣地ゲージの上にLoseを表示</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エネミーもプレイヤーキャラクターと同じように回転させる</t>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Loseの場合はリトライ　セレクト　ゲーム終了の順番で表示</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム終了が選ばれた場合ゲームを終了させる</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6795,7 +7025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6910,6 +7140,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11866,6 +12099,143 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1278135"/>
+          <a:ext cx="4924425" cy="2769989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154559</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="699135" y="5143500"/>
+          <a:ext cx="4256024" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="7780734"/>
+          <a:ext cx="4295776" cy="2201466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21857,9 +22227,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22158,12 +22526,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -22197,53 +22565,53 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -22275,7 +22643,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="47"/>
     </row>
@@ -22481,22 +22849,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
@@ -22505,28 +22873,28 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -22834,7 +23202,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -22865,72 +23233,72 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13"/>
       <c r="B11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22941,63 +23309,63 @@
     </row>
     <row r="15" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -23012,10 +23380,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -23023,23 +23391,89 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="37"/>
+    <row r="1" spans="1:2" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="48" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>140</v>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23074,7 +23508,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="35"/>
     </row>
@@ -23101,7 +23535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -23109,7 +23543,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="36"/>
     </row>
@@ -23120,57 +23554,57 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -23210,47 +23644,47 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23706,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23289,43 +23723,43 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="L24" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -23352,7 +23786,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
